--- a/DummySheet2.xlsx
+++ b/DummySheet2.xlsx
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>679</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>586</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>681</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>587</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>682</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>588</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>683</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>684</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>589</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>685</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>590</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>686</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>591</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>687</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>592</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>688</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>593</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>689</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>594</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>690</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>595</v>
+        <v>22</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>691</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>596</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>692</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>597</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>693</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>598</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>694</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>599</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>695</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>600</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>696</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>601</v>
+        <v>34</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>602</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>697</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>698</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>603</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>699</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>604</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>700</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>605</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>606</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>701</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>607</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>702</v>
+        <v>46</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>703</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>608</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>609</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>704</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>610</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>705</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>611</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>706</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>612</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>707</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>613</v>
+        <v>59</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>708</v>
+        <v>58</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>614</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>709</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>710</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>615</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>711</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>616</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>617</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>712</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>618</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>713</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>619</v>
+        <v>71</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>714</v>
+        <v>70</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>620</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>715</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>716</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>621</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>717</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>622</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>623</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>718</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>719</v>
+        <v>81</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>720</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>625</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>626</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>721</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>722</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>627</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>628</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>723</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>629</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>724</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>725</v>
+        <v>93</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>630</v>
+        <v>92</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>726</v>
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>631</v>
+        <v>94</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>632</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>727</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>633</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>728</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>634</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>729</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>730</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>635</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>731</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>636</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>637</v>
+        <v>107</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>732</v>
+        <v>106</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>638</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>733</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>734</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>639</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>735</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>640</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>362</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>364</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>365</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>366</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>367</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>368</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>369</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>371</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>372</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>373</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>374</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>375</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>376</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>377</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>378</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>379</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>381</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>380</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>386</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>27902</v>
+        <v>27901</v>
       </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr"/>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>387</v>
+        <v>142</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>27901</v>
+        <v>27902</v>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>391</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>390</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>393</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>394</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>395</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>397</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>398</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>399</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>403</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>405</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>406</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>24657</v>
+        <v>24658</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>408</v>
+        <v>166</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>24658</v>
+        <v>24657</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>410</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>411</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>412</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>413</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>415</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>417</v>
+        <v>178</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>26969</v>
+        <v>26970</v>
       </c>
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr"/>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>418</v>
+        <v>177</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>26970</v>
+        <v>26969</v>
       </c>
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>419</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>420</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>421</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>422</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>423</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>424</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>425</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>426</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5699,7 +5699,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>427</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>428</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>429</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>430</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>432</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>433</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>434</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>435</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>436</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>437</v>
+        <v>201</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>25112</v>
+        <v>25113</v>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>438</v>
+        <v>200</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>25113</v>
+        <v>25112</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>439</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>440</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>441</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>442</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>444</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>445</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>446</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>447</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>449</v>
+        <v>213</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>26852</v>
+        <v>26851</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr"/>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>448</v>
+        <v>212</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>26851</v>
+        <v>26852</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>450</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>453</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>456</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>457</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>458</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>459</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>460</v>
+        <v>225</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>26421</v>
+        <v>26422</v>
       </c>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>461</v>
+        <v>224</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>26422</v>
+        <v>26421</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>462</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>464</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>465</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>466</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>469</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>470</v>
+        <v>236</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>26419</v>
+        <v>26420</v>
       </c>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>471</v>
+        <v>235</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>26420</v>
+        <v>26419</v>
       </c>
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
@@ -7132,7 +7132,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>472</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>473</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>474</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>475</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>476</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>477</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>479</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>478</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>483</v>
+        <v>247</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>27989</v>
+        <v>27988</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr"/>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>482</v>
+        <v>246</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>27988</v>
+        <v>27989</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>480</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>481</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>485</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>484</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>486</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>488</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>489</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>490</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>491</v>
+        <v>261</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>25165</v>
+        <v>24198</v>
       </c>
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr"/>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>493</v>
+        <v>258</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>24197</v>
+        <v>25165</v>
       </c>
       <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>494</v>
+        <v>260</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>24198</v>
+        <v>24197</v>
       </c>
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>495</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>496</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>497</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>498</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>499</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>502</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>503</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>504</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>506</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>505</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>507</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>508</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>509</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>510</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>511</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>512</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>513</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>514</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>516</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>517</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -8559,7 +8559,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>518</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -8588,7 +8588,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>520</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>519</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>521</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>522</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>523</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>524</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>525</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>526</v>
+        <v>296</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>527</v>
+        <v>297</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>528</v>
+        <v>298</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>529</v>
+        <v>299</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>531</v>
+        <v>302</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>532</v>
+        <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>533</v>
+        <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>534</v>
+        <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>535</v>
+        <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>27</v>
+        <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>537</v>
+        <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>538</v>
+        <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>539</v>
+        <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>540</v>
+        <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>541</v>
+        <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>29</v>
+        <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>542</v>
+        <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>543</v>
+        <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>544</v>
+        <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>545</v>
+        <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>546</v>
+        <v>322</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>547</v>
+        <v>323</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>548</v>
+        <v>324</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>549</v>
+        <v>325</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>550</v>
+        <v>327</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>551</v>
+        <v>328</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>552</v>
+        <v>329</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>553</v>
+        <v>330</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>554</v>
+        <v>331</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>555</v>
+        <v>332</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>557</v>
+        <v>335</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>558</v>
+        <v>336</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>559</v>
+        <v>337</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>33</v>
+        <v>338</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>560</v>
+        <v>339</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>561</v>
+        <v>340</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>562</v>
+        <v>341</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>34</v>
+        <v>342</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>563</v>
+        <v>343</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>564</v>
+        <v>344</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -10332,7 +10332,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>565</v>
+        <v>345</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>566</v>
+        <v>346</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>567</v>
+        <v>347</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>568</v>
+        <v>348</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>569</v>
+        <v>349</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>570</v>
+        <v>351</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>571</v>
+        <v>352</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>572</v>
+        <v>353</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>36</v>
+        <v>355</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -10611,7 +10611,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>10637</v>
+        <v>10638</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>52115-02166</t>
+          <t>52115-02167</t>
         </is>
       </c>
       <c r="G356" t="inlineStr"/>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>10638</v>
+        <v>10637</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>52115-02167</t>
+          <t>52115-02166</t>
         </is>
       </c>
       <c r="G357" t="inlineStr"/>
@@ -10665,7 +10665,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>573</v>
+        <v>356</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>574</v>
+        <v>357</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -10725,7 +10725,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>575</v>
+        <v>358</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>576</v>
+        <v>359</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>577</v>
+        <v>360</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>578</v>
+        <v>361</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -10843,7 +10843,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>579</v>
+        <v>362</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>580</v>
+        <v>363</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>10715</v>
+        <v>10716</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>39</v>
+        <v>364</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>10716</v>
+        <v>10715</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>581</v>
+        <v>366</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>583</v>
+        <v>368</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>40</v>
+        <v>369</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44</v>
+        <v>373</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>736</v>
+        <v>375</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>641</v>
+        <v>376</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>642</v>
+        <v>377</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>737</v>
+        <v>378</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>738</v>
+        <v>380</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>643</v>
+        <v>379</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -11394,7 +11394,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>644</v>
+        <v>381</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>739</v>
+        <v>382</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>46</v>
+        <v>383</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>47</v>
+        <v>384</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>48</v>
+        <v>385</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>49</v>
+        <v>386</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>50</v>
+        <v>387</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>52</v>
+        <v>388</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>51</v>
+        <v>389</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>53</v>
+        <v>390</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>54</v>
+        <v>391</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>56</v>
+        <v>393</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>57</v>
+        <v>394</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>58</v>
+        <v>395</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -11847,7 +11847,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>59</v>
+        <v>396</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>61</v>
+        <v>398</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -11971,7 +11971,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>63</v>
+        <v>401</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>68</v>
+        <v>406</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>70</v>
+        <v>407</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>71</v>
+        <v>408</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>72</v>
+        <v>409</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>73</v>
+        <v>411</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -12387,7 +12387,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>75</v>
+        <v>412</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>76</v>
+        <v>413</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>82</v>
+        <v>419</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>84</v>
+        <v>421</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>85</v>
+        <v>422</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>86</v>
+        <v>423</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>87</v>
+        <v>424</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -12846,7 +12846,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>18648</v>
+        <v>19451</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -12866,14 +12866,14 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>52115-02214</t>
+          <t>52115-02213</t>
         </is>
       </c>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>MISSING</t>
+          <t>*</t>
         </is>
       </c>
       <c r="J427" t="inlineStr"/>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>89</v>
+        <v>426</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>88</v>
+        <v>425</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>19451</v>
+        <v>18648</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -12936,14 +12936,14 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>52115-02213</t>
+          <t>52115-02214</t>
         </is>
       </c>
       <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>MISSING</t>
         </is>
       </c>
       <c r="J429" t="inlineStr"/>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>92</v>
+        <v>428</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>91</v>
+        <v>429</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>740</v>
+        <v>430</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>645</v>
+        <v>431</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -13079,7 +13079,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>93</v>
+        <v>432</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>95</v>
+        <v>433</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>94</v>
+        <v>434</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -13180,7 +13180,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>96</v>
+        <v>435</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>97</v>
+        <v>436</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -13250,7 +13250,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>99</v>
+        <v>438</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -13320,7 +13320,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>103</v>
+        <v>443</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>105</v>
+        <v>445</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -13639,7 +13639,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>20586</v>
+        <v>20585</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>109</v>
+        <v>448</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>20585</v>
+        <v>20586</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>111</v>
+        <v>450</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>112</v>
+        <v>451</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>113</v>
+        <v>452</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>114</v>
+        <v>453</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>115</v>
+        <v>454</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>116</v>
+        <v>455</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>117</v>
+        <v>456</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -13954,7 +13954,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>118</v>
+        <v>457</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>119</v>
+        <v>458</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>120</v>
+        <v>459</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>121</v>
+        <v>460</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>122</v>
+        <v>462</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>125</v>
+        <v>463</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>124</v>
+        <v>464</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>127</v>
+        <v>466</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>129</v>
+        <v>467</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>128</v>
+        <v>468</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>130</v>
+        <v>469</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>131</v>
+        <v>470</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>132</v>
+        <v>471</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>133</v>
+        <v>472</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>134</v>
+        <v>473</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -14553,7 +14553,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>135</v>
+        <v>474</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -14588,7 +14588,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>136</v>
+        <v>475</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>137</v>
+        <v>476</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>138</v>
+        <v>477</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>139</v>
+        <v>478</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>140</v>
+        <v>479</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>141</v>
+        <v>480</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>142</v>
+        <v>481</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>143</v>
+        <v>482</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>646</v>
+        <v>483</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>741</v>
+        <v>484</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>144</v>
+        <v>485</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>146</v>
+        <v>486</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>145</v>
+        <v>487</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>147</v>
+        <v>488</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>148</v>
+        <v>489</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>149</v>
+        <v>490</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -15136,7 +15136,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>150</v>
+        <v>491</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -15171,7 +15171,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>151</v>
+        <v>492</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>153</v>
+        <v>494</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>154</v>
+        <v>495</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>155</v>
+        <v>496</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>156</v>
+        <v>497</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>157</v>
+        <v>498</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>158</v>
+        <v>499</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -15451,7 +15451,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -15486,7 +15486,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>160</v>
+        <v>501</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>161</v>
+        <v>502</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>162</v>
+        <v>503</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>164</v>
+        <v>505</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>165</v>
+        <v>506</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -15696,7 +15696,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>166</v>
+        <v>507</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -15766,7 +15766,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -15801,7 +15801,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>169</v>
+        <v>510</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>171</v>
+        <v>511</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>170</v>
+        <v>512</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>172</v>
+        <v>513</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>173</v>
+        <v>514</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>174</v>
+        <v>515</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -16011,7 +16011,7 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>175</v>
+        <v>516</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -16046,7 +16046,7 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>176</v>
+        <v>517</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>177</v>
+        <v>518</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>178</v>
+        <v>519</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>179</v>
+        <v>521</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>23665</v>
+        <v>23666</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>23666</v>
+        <v>23665</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>181</v>
+        <v>522</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>182</v>
+        <v>523</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>183</v>
+        <v>524</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>185</v>
+        <v>525</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>184</v>
+        <v>526</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>186</v>
+        <v>527</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>187</v>
+        <v>528</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>188</v>
+        <v>529</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>189</v>
+        <v>530</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -16544,7 +16544,7 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>23545</v>
+        <v>23546</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -16579,7 +16579,7 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>191</v>
+        <v>531</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -16587,7 +16587,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>23546</v>
+        <v>23545</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -16614,7 +16614,7 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>192</v>
+        <v>533</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>193</v>
+        <v>534</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>194</v>
+        <v>535</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>195</v>
+        <v>536</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>199</v>
+        <v>537</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>198</v>
+        <v>538</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>197</v>
+        <v>539</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>196</v>
+        <v>540</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -16894,7 +16894,7 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>201</v>
+        <v>542</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>22680</v>
+        <v>22679</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -16929,7 +16929,7 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>22679</v>
+        <v>22680</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>742</v>
+        <v>544</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>647</v>
+        <v>543</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -17018,7 +17018,7 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>203</v>
+        <v>545</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>202</v>
+        <v>546</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>204</v>
+        <v>547</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>205</v>
+        <v>548</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>206</v>
+        <v>549</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>648</v>
+        <v>550</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -17220,7 +17220,7 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>743</v>
+        <v>551</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>207</v>
+        <v>552</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -17317,7 +17317,7 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>209</v>
+        <v>554</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>210</v>
+        <v>556</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>22927</v>
+        <v>22928</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>211</v>
+        <v>555</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>22928</v>
+        <v>22927</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -17422,7 +17422,7 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>212</v>
+        <v>557</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>213</v>
+        <v>558</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>214</v>
+        <v>559</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -17527,7 +17527,7 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>215</v>
+        <v>560</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>649</v>
+        <v>561</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>744</v>
+        <v>562</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>216</v>
+        <v>563</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>217</v>
+        <v>564</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>218</v>
+        <v>565</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>219</v>
+        <v>567</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>22089</v>
+        <v>22088</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>220</v>
+        <v>566</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>22088</v>
+        <v>22089</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>221</v>
+        <v>568</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -17830,7 +17830,7 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>222</v>
+        <v>569</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>223</v>
+        <v>570</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -17900,7 +17900,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>745</v>
+        <v>571</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>650</v>
+        <v>572</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>746</v>
+        <v>573</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>651</v>
+        <v>574</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>225</v>
+        <v>575</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>224</v>
+        <v>576</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>227</v>
+        <v>577</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>226</v>
+        <v>578</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>228</v>
+        <v>579</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>229</v>
+        <v>580</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>230</v>
+        <v>581</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>231</v>
+        <v>582</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>652</v>
+        <v>583</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>747</v>
+        <v>584</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>233</v>
+        <v>585</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>232</v>
+        <v>586</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>234</v>
+        <v>587</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>235</v>
+        <v>588</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>236</v>
+        <v>589</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>237</v>
+        <v>590</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>238</v>
+        <v>591</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>239</v>
+        <v>592</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>241</v>
+        <v>594</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>23602</v>
+        <v>23601</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>240</v>
+        <v>593</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -18661,7 +18661,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>23601</v>
+        <v>23602</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -18688,7 +18688,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>242</v>
+        <v>595</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -18719,7 +18719,7 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>244</v>
+        <v>596</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>243</v>
+        <v>597</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>245</v>
+        <v>598</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>246</v>
+        <v>599</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>748</v>
+        <v>600</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -18872,7 +18872,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -18901,7 +18901,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>247</v>
+        <v>602</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -18932,7 +18932,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>248</v>
+        <v>603</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>749</v>
+        <v>605</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>750</v>
+        <v>607</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -19108,7 +19108,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>751</v>
+        <v>609</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>752</v>
+        <v>610</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>249</v>
+        <v>614</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -19199,7 +19199,7 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>22404</v>
+        <v>22479</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -19211,7 +19211,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>52115-02339</t>
+          <t>52115-02340</t>
         </is>
       </c>
       <c r="G614" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>250</v>
+        <v>612</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -19230,7 +19230,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>22468</v>
+        <v>22404</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -19242,7 +19242,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>52115-02340</t>
+          <t>52115-02339</t>
         </is>
       </c>
       <c r="G615" t="inlineStr"/>
@@ -19253,7 +19253,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>251</v>
+        <v>613</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>22479</v>
+        <v>22468</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>253</v>
+        <v>616</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -19292,7 +19292,7 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>22887</v>
+        <v>22886</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>252</v>
+        <v>615</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -19327,7 +19327,7 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>22886</v>
+        <v>22887</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>753</v>
+        <v>618</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>254</v>
+        <v>619</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -19443,7 +19443,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>255</v>
+        <v>620</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>257</v>
+        <v>621</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>256</v>
+        <v>622</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>659</v>
+        <v>623</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>754</v>
+        <v>624</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>755</v>
+        <v>625</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>259</v>
+        <v>629</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         </is>
       </c>
       <c r="C629" t="n">
-        <v>22909</v>
+        <v>22295</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -19668,22 +19668,18 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>52115-02344</t>
+          <t>52115-02345</t>
         </is>
       </c>
       <c r="G629" t="inlineStr"/>
       <c r="H629" t="inlineStr"/>
-      <c r="I629" t="inlineStr">
-        <is>
-          <t>Calibration lab on 1/11/20</t>
-        </is>
-      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>258</v>
+        <v>627</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -19691,7 +19687,7 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>22908</v>
+        <v>22909</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -19718,7 +19714,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>260</v>
+        <v>628</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -19726,7 +19722,7 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>22295</v>
+        <v>22908</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -19738,18 +19734,22 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>52115-02345</t>
+          <t>52115-02344</t>
         </is>
       </c>
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr"/>
-      <c r="I631" t="inlineStr"/>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>Calibration lab on 1/11/20</t>
+        </is>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>261</v>
+        <v>630</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>262</v>
+        <v>631</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>263</v>
+        <v>632</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -19846,7 +19846,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>264</v>
+        <v>633</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>266</v>
+        <v>634</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>265</v>
+        <v>635</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>268</v>
+        <v>639</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>22907</v>
+        <v>22906</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>267</v>
+        <v>638</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>22906</v>
+        <v>22907</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>269</v>
+        <v>640</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -20090,7 +20090,7 @@
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>270</v>
+        <v>641</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>271</v>
+        <v>642</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -20152,7 +20152,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>272</v>
+        <v>643</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>273</v>
+        <v>644</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>757</v>
+        <v>645</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>275</v>
+        <v>647</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -20299,7 +20299,7 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>274</v>
+        <v>648</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -20330,7 +20330,7 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>1</v>
+        <v>650</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>276</v>
+        <v>651</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -20427,7 +20427,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>277</v>
+        <v>652</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>278</v>
+        <v>653</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -20497,7 +20497,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>279</v>
+        <v>654</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>280</v>
+        <v>655</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>758</v>
+        <v>656</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -20621,7 +20621,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>281</v>
+        <v>658</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>282</v>
+        <v>659</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>283</v>
+        <v>660</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>759</v>
+        <v>661</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>285</v>
+        <v>663</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>284</v>
+        <v>664</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>286</v>
+        <v>665</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>287</v>
+        <v>666</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>2</v>
+        <v>667</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -20951,7 +20951,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>288</v>
+        <v>668</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>760</v>
+        <v>669</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -21044,7 +21044,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>761</v>
+        <v>672</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -21071,7 +21071,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3</v>
+        <v>673</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>289</v>
+        <v>674</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>291</v>
+        <v>675</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>290</v>
+        <v>676</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>292</v>
+        <v>677</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>294</v>
+        <v>678</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>293</v>
+        <v>679</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>295</v>
+        <v>680</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>296</v>
+        <v>681</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -21413,7 +21413,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>297</v>
+        <v>682</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>4</v>
+        <v>683</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -21479,7 +21479,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>298</v>
+        <v>684</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>299</v>
+        <v>685</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -21537,7 +21537,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>300</v>
+        <v>686</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -21568,7 +21568,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>301</v>
+        <v>687</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>302</v>
+        <v>688</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
@@ -21616,7 +21616,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>303</v>
+        <v>689</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>304</v>
+        <v>690</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
@@ -21674,7 +21674,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>305</v>
+        <v>691</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>306</v>
+        <v>692</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>308</v>
+        <v>693</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>307</v>
+        <v>694</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>5</v>
+        <v>695</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>309</v>
+        <v>696</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
@@ -21850,7 +21850,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>310</v>
+        <v>697</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>311</v>
+        <v>698</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>312</v>
+        <v>699</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>313</v>
+        <v>700</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
@@ -21966,7 +21966,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>314</v>
+        <v>701</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
@@ -21995,7 +21995,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>315</v>
+        <v>702</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>316</v>
+        <v>703</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>317</v>
+        <v>704</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
@@ -22082,7 +22082,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>318</v>
+        <v>705</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>319</v>
+        <v>706</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
@@ -22140,7 +22140,7 @@
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>320</v>
+        <v>707</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>321</v>
+        <v>708</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>322</v>
+        <v>709</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>324</v>
+        <v>710</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>323</v>
+        <v>711</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>326</v>
+        <v>712</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>325</v>
+        <v>713</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>327</v>
+        <v>714</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>328</v>
+        <v>715</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
@@ -22401,7 +22401,7 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>329</v>
+        <v>716</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>330</v>
+        <v>717</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>331</v>
+        <v>718</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>333</v>
+        <v>720</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>26729</v>
+        <v>26728</v>
       </c>
       <c r="D721" t="inlineStr"/>
       <c r="E721" t="inlineStr"/>
@@ -22517,7 +22517,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>332</v>
+        <v>719</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
@@ -22525,7 +22525,7 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>26728</v>
+        <v>26729</v>
       </c>
       <c r="D722" t="inlineStr"/>
       <c r="E722" t="inlineStr"/>
@@ -22546,7 +22546,7 @@
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
-        <v>335</v>
+        <v>721</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>334</v>
+        <v>722</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>336</v>
+        <v>723</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
@@ -22633,7 +22633,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>337</v>
+        <v>724</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>338</v>
+        <v>725</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
@@ -22691,7 +22691,7 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>339</v>
+        <v>726</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
@@ -22720,7 +22720,7 @@
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>340</v>
+        <v>727</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>341</v>
+        <v>728</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
@@ -22778,7 +22778,7 @@
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
-        <v>343</v>
+        <v>730</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>26518</v>
+        <v>26517</v>
       </c>
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
@@ -22807,7 +22807,7 @@
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
-        <v>342</v>
+        <v>729</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
@@ -22815,7 +22815,7 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>26517</v>
+        <v>26518</v>
       </c>
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr"/>
@@ -22836,7 +22836,7 @@
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
-        <v>344</v>
+        <v>731</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
@@ -22865,7 +22865,7 @@
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
-        <v>345</v>
+        <v>732</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
-        <v>346</v>
+        <v>733</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
-        <v>347</v>
+        <v>734</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
-        <v>348</v>
+        <v>735</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
@@ -22981,7 +22981,7 @@
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
-        <v>349</v>
+        <v>736</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
-        <v>351</v>
+        <v>737</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
-        <v>350</v>
+        <v>738</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
@@ -23068,7 +23068,7 @@
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
-        <v>6</v>
+        <v>739</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
@@ -23099,7 +23099,7 @@
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
-        <v>353</v>
+        <v>741</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         </is>
       </c>
       <c r="C742" t="n">
-        <v>26723</v>
+        <v>26722</v>
       </c>
       <c r="D742" t="inlineStr"/>
       <c r="E742" t="inlineStr"/>
@@ -23128,7 +23128,7 @@
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
-        <v>352</v>
+        <v>740</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>26722</v>
+        <v>26723</v>
       </c>
       <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
@@ -23157,7 +23157,7 @@
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
-        <v>355</v>
+        <v>742</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
-        <v>354</v>
+        <v>743</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
-        <v>356</v>
+        <v>744</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
-        <v>357</v>
+        <v>745</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
-        <v>359</v>
+        <v>746</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
@@ -23302,7 +23302,7 @@
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
-        <v>358</v>
+        <v>747</v>
       </c>
       <c r="B749" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
-        <v>360</v>
+        <v>748</v>
       </c>
       <c r="B750" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
-        <v>361</v>
+        <v>749</v>
       </c>
       <c r="B751" t="inlineStr">
         <is>
@@ -23389,17 +23389,15 @@
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>24133 / 24134</t>
-        </is>
+      <c r="C752" t="n">
+        <v>14306</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -23418,7 +23416,7 @@
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="B753" t="inlineStr">
         <is>
@@ -23426,7 +23424,7 @@
         </is>
       </c>
       <c r="C753" t="n">
-        <v>22920</v>
+        <v>14324</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -23445,7 +23443,7 @@
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
-        <v>670</v>
+        <v>759</v>
       </c>
       <c r="B754" t="inlineStr">
         <is>
@@ -23454,7 +23452,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>24650 / 24651</t>
+          <t>24669 / 24670</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -23474,17 +23472,15 @@
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>24665 / 24666</t>
-        </is>
+      <c r="C755" t="n">
+        <v>14307</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -23503,17 +23499,15 @@
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>24648 / 24649</t>
-        </is>
+      <c r="C756" t="n">
+        <v>14325</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -23532,15 +23526,17 @@
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C757" t="n">
-        <v>14325</v>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>18431 / 18432</t>
+        </is>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -23559,15 +23555,17 @@
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C758" t="n">
-        <v>14324</v>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>24665 / 24666</t>
+        </is>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -23586,15 +23584,17 @@
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="C759" t="n">
-        <v>14306</v>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>24650 / 24651</t>
+        </is>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
-        <v>676</v>
+        <v>751</v>
       </c>
       <c r="B760" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>14307</v>
+        <v>22920</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -23640,7 +23640,7 @@
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="B761" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>24669 / 24670</t>
+          <t>24133 / 24134</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -23669,7 +23669,7 @@
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="B762" t="inlineStr">
         <is>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>18431 / 18432</t>
+          <t>24648 / 24649</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -23698,7 +23698,7 @@
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
-        <v>678</v>
+        <v>761</v>
       </c>
       <c r="B763" t="inlineStr">
         <is>

--- a/DummySheet2.xlsx
+++ b/DummySheet2.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00410 / 00411</t>
+          <t xml:space="preserve">00410 </t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -516,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00410 / 00411</t>
+          <t xml:space="preserve">00410 </t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00453 / 00454</t>
+          <t xml:space="preserve">00453 </t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -566,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00453 / 00454</t>
+          <t xml:space="preserve">00453 </t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00480 / 00481</t>
+          <t xml:space="preserve">00480 </t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00480 / 00481</t>
+          <t xml:space="preserve">00480 </t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00733 / 00734</t>
+          <t xml:space="preserve">00733 </t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -666,7 +666,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00733 / 00734</t>
+          <t xml:space="preserve">00733 </t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00744 / 00745</t>
+          <t xml:space="preserve">00744 </t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00744 / 00745</t>
+          <t xml:space="preserve">00744 </t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -741,7 +741,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00801/00802</t>
+          <t>00801</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -760,7 +760,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00801/00802</t>
+          <t>00801</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -779,7 +779,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00810 / 00811</t>
+          <t xml:space="preserve">00810 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00810 / 00811</t>
+          <t xml:space="preserve">00810 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00834 / 00835</t>
+          <t xml:space="preserve">00834 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00834 / 00835</t>
+          <t xml:space="preserve">00834 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -855,7 +855,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00841 / 00842</t>
+          <t xml:space="preserve">00841 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>00841 / 00842</t>
+          <t xml:space="preserve">00841 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00892 / 00893</t>
+          <t xml:space="preserve">00892 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -912,7 +912,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00892 / 00893</t>
+          <t xml:space="preserve">00892 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -931,7 +931,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00898/00899</t>
+          <t>00898</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00898/00899</t>
+          <t>00898</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00901 / 00902</t>
+          <t xml:space="preserve">00901 </t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -988,7 +988,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00901 / 00902</t>
+          <t xml:space="preserve">00901 </t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00906 / 00907</t>
+          <t xml:space="preserve">00906 </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00906 / 00907</t>
+          <t xml:space="preserve">00906 </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00911 / 00912</t>
+          <t xml:space="preserve">00911 </t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00911 / 00912</t>
+          <t xml:space="preserve">00911 </t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00975 / 00976</t>
+          <t xml:space="preserve">00975 </t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00975 / 00976</t>
+          <t xml:space="preserve">00975 </t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00978 / 00979</t>
+          <t xml:space="preserve">00978 </t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00978 / 00979</t>
+          <t xml:space="preserve">00978 </t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00996/00997</t>
+          <t>00996</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00996/00997</t>
+          <t>00996</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00998/00999</t>
+          <t>00998</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00998/00999</t>
+          <t>00998</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01002/01003</t>
+          <t>01002</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01002/01003</t>
+          <t>01002</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01004/01005</t>
+          <t>01004</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01004/01005</t>
+          <t>01004</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01006/01007</t>
+          <t>01006</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01006/01007</t>
+          <t>01006</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01010/01011</t>
+          <t>01010</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01010/01011</t>
+          <t>01010</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01021 / 01022</t>
+          <t xml:space="preserve">01021 </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01021 / 01022</t>
+          <t xml:space="preserve">01021 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01030 / 01031</t>
+          <t xml:space="preserve">01030 </t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01030 / 01031</t>
+          <t xml:space="preserve">01030 </t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01034 / 01035</t>
+          <t xml:space="preserve">01034 </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01034 / 01035</t>
+          <t xml:space="preserve">01034 </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01038 / 01039</t>
+          <t xml:space="preserve">01038 </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01038 / 01039</t>
+          <t xml:space="preserve">01038 </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01040/01041</t>
+          <t>01040</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01040/01041</t>
+          <t>01040</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1853,15 +1853,15 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01044(5)</t>
+          <t>01044</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>24329</v>
+        <v>24336</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1880,15 +1880,15 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01044(5)</t>
+          <t>01044</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24329</v>
+        <v>24336</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1907,15 +1907,15 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01044/01045</t>
+          <t>01044(5)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24336</v>
+        <v>24329</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1934,15 +1934,15 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01044/01045</t>
+          <t>01044(5)</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24336</v>
+        <v>24329</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01058/01059</t>
+          <t>01058</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01058/01059</t>
+          <t>01058</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01060/01061</t>
+          <t>01060</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01060/01061</t>
+          <t>01060</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01070/01071</t>
+          <t>01070</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01070/01071</t>
+          <t>01070</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01077/01078</t>
+          <t>01077</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01077/01078</t>
+          <t>01077</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01079/01080</t>
+          <t>01079</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01079/01080</t>
+          <t>01079</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01085/01086</t>
+          <t>01085</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01085/01086</t>
+          <t>01085</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01089/01090</t>
+          <t>01089</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01089/01090</t>
+          <t>01089</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01111/01112</t>
+          <t>01111</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01111/01112</t>
+          <t>01111</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01128/01129</t>
+          <t>01128</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01128/01129</t>
+          <t>01128</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01137/01138</t>
+          <t>01137</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01137/01138</t>
+          <t>01137</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01151/01152</t>
+          <t>01151</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01151/01152</t>
+          <t>01151</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01172/01173</t>
+          <t>01172</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01172/01173</t>
+          <t>01172</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01182/01183</t>
+          <t>01182</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01182/01183</t>
+          <t>01182</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01211/01212</t>
+          <t>01211</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01211/01212</t>
+          <t>01211</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01215/01216</t>
+          <t>01215</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01215/01216</t>
+          <t>01215</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01220/01221</t>
+          <t>01220</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01220/01221</t>
+          <t>01220</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01225/01226</t>
+          <t>01225</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01225/01226</t>
+          <t>01225</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01236/01237</t>
+          <t>01236</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01236/01237</t>
+          <t>01236</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01245/01246</t>
+          <t>01245</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01245/01246</t>
+          <t>01245</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01250/01251</t>
+          <t>01250</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01250/01251</t>
+          <t>01250</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01258/01259</t>
+          <t>01258</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01258/01259</t>
+          <t>01258</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>01260/01261</t>
+          <t>01260</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01260/01261</t>
+          <t>01260</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01284/01285</t>
+          <t>01284</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01284/01285</t>
+          <t>01284</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01289/01290</t>
+          <t>01289</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>01289/01290</t>
+          <t>01289</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01298/01299</t>
+          <t>01298</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01298/01299</t>
+          <t>01298</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01312/01313</t>
+          <t>01312</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01312/01313</t>
+          <t>01312</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>424/5</t>
+          <t>424</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>424/5</t>
+          <t>424</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
